--- a/schema/excel/chemrof.xlsx
+++ b/schema/excel/chemrof.xlsx
@@ -1033,11 +1033,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"proton,alpha particle,tau neutrino,positron,muon,hyperon,boson,fermion,baryon,top quark,hydron,muon neutrino,nuclear particle,pi minus meson,pi meson,nucleon,triton,deuteron,neutrino,meson,quark,Higgs boson,fundamental particle,electron neutrino,SubatomicParticle,tau lepton,photon,up quark,antimuon,strange quark,Delta baryon,pi zero meson,hadron,bottom quark,composite particle,electron,neutron,lepton,helion,charm quark,down quark,pi positive meson"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3184,96 +3179,101 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>derived_from_organisms</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>has_atom_occurrences</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>has_bonds</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>has_submolecules</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>has_atoms</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>is_organic</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>inchi_atom_connections_sublayer</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>IUPAC_name</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>is_radical</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>has_chemical_role</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>inchi_string</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>inchi_chemical_sublayer</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
-        </is>
-      </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>owl_subclass_of</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>id</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -5856,7 +5856,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"covalent,aromatic,single,double,triple,quadruple,hydrogen,ionic,polycentric,metal-metal,salt bridge,polar covalent"</formula1>
+      <formula1>"covalent,aromatic,single,double,triple,quadruple,hydrogen,ionic,polycentric,metal-metal,salt bridge,polar covalent,sigma"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/schema/excel/chemrof.xlsx
+++ b/schema/excel/chemrof.xlsx
@@ -56,45 +56,46 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DNASequenceInterval" sheetId="47" state="visible" r:id="rId47"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RNASequenceInterval" sheetId="48" state="visible" r:id="rId48"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FunctionalGroup" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MolecularSpecies" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NonSpeciesMolecule" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PolyatomicIon" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MolecularCation" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MolecularAnion" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NetUnchargedMolecule" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Zwitterion" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NeutralMolecule" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChemicalElement" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UnchargedAtom" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuclide" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Radionuclide" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Isotope" sheetId="62" state="visible" r:id="rId62"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Isobar" sheetId="63" state="visible" r:id="rId63"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MonoatomicIon" sheetId="64" state="visible" r:id="rId64"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomAnion" sheetId="65" state="visible" r:id="rId65"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomCation" sheetId="66" state="visible" r:id="rId66"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FullySpecifiedAtom" sheetId="67" state="visible" r:id="rId67"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardInchiObject" sheetId="68" state="visible" r:id="rId68"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChemicalRole" sheetId="69" state="visible" r:id="rId69"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stereocenter" sheetId="70" state="visible" r:id="rId70"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChiralityCenter" sheetId="71" state="visible" r:id="rId71"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomicBond" sheetId="72" state="visible" r:id="rId72"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SubatomicParticleOccurrence" sheetId="73" state="visible" r:id="rId73"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomOccurrence" sheetId="74" state="visible" r:id="rId74"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChemicalSalt" sheetId="75" state="visible" r:id="rId75"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ester" sheetId="76" state="visible" r:id="rId76"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stereoisomer" sheetId="77" state="visible" r:id="rId77"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enantiomer" sheetId="78" state="visible" r:id="rId78"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RacemicMixture" sheetId="79" state="visible" r:id="rId79"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Allotrope" sheetId="80" state="visible" r:id="rId80"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PolymerRepeatUnit" sheetId="81" state="visible" r:id="rId81"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reaction" sheetId="82" state="visible" r:id="rId82"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IsomeraseReaction" sheetId="83" state="visible" r:id="rId83"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReactionParticipant" sheetId="84" state="visible" r:id="rId84"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProportionalPart" sheetId="85" state="visible" r:id="rId85"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChemicalSimilarity" sheetId="86" state="visible" r:id="rId86"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MoleculePairwiseSimilarity" sheetId="87" state="visible" r:id="rId87"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TanimotoSimilarity" sheetId="88" state="visible" r:id="rId88"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IonizableGroup" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MolecularSpecies" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NonSpeciesMolecule" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PolyatomicIon" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MolecularCation" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MolecularAnion" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NetUnchargedMolecule" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Zwitterion" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NeutralMolecule" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChemicalElement" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UnchargedAtom" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuclide" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Radionuclide" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Isotope" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Isobar" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MonoatomicIon" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomAnion" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomCation" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FullySpecifiedAtom" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardInchiObject" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChemicalRole" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stereocenter" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChiralityCenter" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomicBond" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SubatomicParticleOccurrence" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomOccurrence" sheetId="75" state="visible" r:id="rId75"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChemicalSalt" sheetId="76" state="visible" r:id="rId76"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ester" sheetId="77" state="visible" r:id="rId77"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stereoisomer" sheetId="78" state="visible" r:id="rId78"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enantiomer" sheetId="79" state="visible" r:id="rId79"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RacemicMixture" sheetId="80" state="visible" r:id="rId80"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Allotrope" sheetId="81" state="visible" r:id="rId81"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PolymerRepeatUnit" sheetId="82" state="visible" r:id="rId82"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reaction" sheetId="83" state="visible" r:id="rId83"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IsomeraseReaction" sheetId="84" state="visible" r:id="rId84"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReactionParticipant" sheetId="85" state="visible" r:id="rId85"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProportionalPart" sheetId="86" state="visible" r:id="rId86"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChemicalSimilarity" sheetId="87" state="visible" r:id="rId87"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MoleculePairwiseSimilarity" sheetId="88" state="visible" r:id="rId88"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TanimotoSimilarity" sheetId="89" state="visible" r:id="rId89"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1433,7 +1434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1549,20 +1550,25 @@
       </c>
       <c r="V1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -1579,7 +1585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1695,20 +1701,25 @@
       </c>
       <c r="V1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -1725,7 +1736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,20 +1827,25 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -1846,7 +1862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,20 +1978,25 @@
       </c>
       <c r="V1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -2033,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2149,20 +2170,25 @@
       </c>
       <c r="V1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -2179,7 +2205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2295,20 +2321,25 @@
       </c>
       <c r="V1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -2325,7 +2356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2461,20 +2492,25 @@
       </c>
       <c r="Z1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -2491,7 +2527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2592,20 +2628,25 @@
       </c>
       <c r="S1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -2622,7 +2663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2758,20 +2799,25 @@
       </c>
       <c r="Z1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -2788,7 +2834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2924,20 +2970,25 @@
       </c>
       <c r="Z1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -2954,7 +3005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3045,20 +3096,25 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -3075,7 +3131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3166,20 +3222,25 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -3196,7 +3257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3287,20 +3348,25 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -3317,7 +3383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3408,20 +3474,25 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -3479,7 +3550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3570,20 +3641,25 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -3600,7 +3676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3706,20 +3782,25 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -3731,152 +3812,6 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_atom_occurrences</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has_bonds</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>has_submolecules</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>has_atoms</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>is_organic</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>inchi_atom_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>IUPAC_name</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>is_radical</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>has_chemical_role</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3893,112 +3828,112 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>derived_from_organisms</t>
+          <t>has_atom_occurrences</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>has_atom_occurrences</t>
+          <t>has_bonds</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>has_bonds</t>
+          <t>has_submolecules</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>has_submolecules</t>
+          <t>has_atoms</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>has_atoms</t>
+          <t>is_organic</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>is_organic</t>
+          <t>inchi_atom_connections_sublayer</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>inchi_atom_connections_sublayer</t>
+          <t>IUPAC_name</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>IUPAC_name</t>
+          <t>is_radical</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>is_radical</t>
+          <t>has_chemical_role</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>has_chemical_role</t>
+          <t>inchi_string</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>inchi_string</t>
+          <t>inchi_chemical_sublayer</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>inchi_chemical_sublayer</t>
+          <t>smiles_string</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>smiles_string</t>
+          <t>empirical_formula</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>empirical_formula</t>
+          <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>has_major_microspecies_at_pH7_3</t>
+          <t>molecular_mass</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>molecular_mass</t>
+          <t>water_solubility</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>water_solubility</t>
+          <t>pka_ionization_constant</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>pka_ionization_constant</t>
+          <t>pka_temperature</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>pka_temperature</t>
+          <t>pka_ionic_strength</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>pka_ionic_strength</t>
+          <t>pka_solvent</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>pka_solvent</t>
+          <t>pka_pressure</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>pka_pressure</t>
+          <t>has_ionizable_groups</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
@@ -4027,13 +3962,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4044,100 +3979,135 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>derived_from_organisms</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_atom_occurrences</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_bonds</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has_submolecules</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>has_atoms</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>is_organic</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>inchi_atom_connections_sublayer</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>IUPAC_name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>is_radical</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>has_chemical_role</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>inchi_string</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>inchi_chemical_sublayer</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -4148,7 +4118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4165,6 +4135,132 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>IUPAC_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>is_radical</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has_chemical_role</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>inchi_string</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>inchi_chemical_sublayer</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>has_sequence_representation</t>
         </is>
       </c>
@@ -4250,20 +4346,25 @@
       </c>
       <c r="R1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -4275,6 +4376,399 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_sequence_representation</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>IUPAC_name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>is_radical</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>has_chemical_role</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>inchi_string</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>inchi_chemical_sublayer</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_sequence_representation</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>IUPAC_name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>is_radical</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>has_chemical_role</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>inchi_string</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>inchi_chemical_sublayer</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_sequence_representation</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>IUPAC_name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>is_radical</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>has_chemical_role</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>inchi_string</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>inchi_chemical_sublayer</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4291,87 +4785,87 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>has_sequence_representation</t>
+          <t>inchi_atom_connections_sublayer</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>inchi_atom_connections_sublayer</t>
+          <t>IUPAC_name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>IUPAC_name</t>
+          <t>is_radical</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>is_radical</t>
+          <t>has_chemical_role</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>has_chemical_role</t>
+          <t>inchi_string</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>inchi_string</t>
+          <t>inchi_chemical_sublayer</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>inchi_chemical_sublayer</t>
+          <t>smiles_string</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>smiles_string</t>
+          <t>empirical_formula</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>empirical_formula</t>
+          <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>has_major_microspecies_at_pH7_3</t>
+          <t>molecular_mass</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>molecular_mass</t>
+          <t>water_solubility</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>water_solubility</t>
+          <t>pka_ionization_constant</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>pka_ionization_constant</t>
+          <t>pka_temperature</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>pka_temperature</t>
+          <t>pka_ionic_strength</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>pka_ionic_strength</t>
+          <t>pka_solvent</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>pka_solvent</t>
+          <t>pka_pressure</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>pka_pressure</t>
+          <t>has_ionizable_groups</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
@@ -4390,379 +4884,6 @@
         </is>
       </c>
       <c r="U1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_sequence_representation</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>inchi_atom_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>IUPAC_name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>is_radical</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>has_chemical_role</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_sequence_representation</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>inchi_atom_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>IUPAC_name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>is_radical</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>has_chemical_role</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>inchi_atom_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>IUPAC_name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>is_radical</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>has_chemical_role</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -4830,7 +4951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4841,125 +4962,35 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>has_atom_occurrences</t>
+          <t>functional_group_type</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>has_bonds</t>
+          <t>pka_value</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>has_submolecules</t>
+          <t>group_position</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>has_atoms</t>
+          <t>group_description</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>is_organic</t>
+          <t>id</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>inchi_atom_connections_sublayer</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
-        <is>
-          <t>IUPAC_name</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>is_radical</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>has_chemical_role</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -4976,7 +5007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5092,20 +5123,25 @@
       </c>
       <c r="V1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -5122,7 +5158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5133,156 +5169,136 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>conjugate_base_of</t>
+          <t>has_atom_occurrences</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>conjugate_acid_of</t>
+          <t>has_bonds</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>bronsted_acid_base_role</t>
+          <t>has_submolecules</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>has_atom_occurrences</t>
+          <t>has_atoms</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>has_bonds</t>
+          <t>is_organic</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>has_submolecules</t>
+          <t>inchi_atom_connections_sublayer</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>has_atoms</t>
+          <t>IUPAC_name</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>is_organic</t>
+          <t>is_radical</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>inchi_atom_connections_sublayer</t>
+          <t>has_chemical_role</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>IUPAC_name</t>
+          <t>inchi_string</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>is_radical</t>
+          <t>inchi_chemical_sublayer</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>has_chemical_role</t>
+          <t>smiles_string</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>inchi_string</t>
+          <t>empirical_formula</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>inchi_chemical_sublayer</t>
+          <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>smiles_string</t>
+          <t>molecular_mass</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>empirical_formula</t>
+          <t>water_solubility</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>has_major_microspecies_at_pH7_3</t>
+          <t>pka_ionization_constant</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>molecular_mass</t>
+          <t>pka_temperature</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>water_solubility</t>
+          <t>pka_ionic_strength</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>pka_ionization_constant</t>
+          <t>pka_solvent</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>pka_temperature</t>
+          <t>pka_pressure</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>pka_ionic_strength</t>
+          <t>has_ionizable_groups</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>pka_solvent</t>
+          <t>owl_subclass_of</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>pka_pressure</t>
+          <t>id</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>owl_subclass_of</t>
+          <t>name</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>elemental_charge</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"acid,base"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -5293,7 +5309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5424,25 +5440,30 @@
       </c>
       <c r="Y1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>elemental_charge</t>
         </is>
@@ -5464,7 +5485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5595,25 +5616,30 @@
       </c>
       <c r="Y1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>elemental_charge</t>
         </is>
@@ -5635,7 +5661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5646,135 +5672,150 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>conjugate_base_of</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>conjugate_acid_of</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>bronsted_acid_base_role</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>has_atom_occurrences</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>has_bonds</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>has_submolecules</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>has_atoms</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>is_organic</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>inchi_atom_connections_sublayer</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>IUPAC_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_radical</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>has_chemical_role</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>inchi_string</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>inchi_chemical_sublayer</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>elemental_charge</t>
         </is>
@@ -5782,7 +5823,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"acid,base"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5796,7 +5837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5917,25 +5958,30 @@
       </c>
       <c r="W1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>elemental_charge</t>
         </is>
@@ -5957,7 +6003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6078,25 +6124,30 @@
       </c>
       <c r="W1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>elemental_charge</t>
         </is>
@@ -6118,7 +6169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6129,129 +6180,149 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>in_periodic_table_group</t>
+          <t>bronsted_acid_base_role</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>in_periodic_table_block</t>
+          <t>has_atom_occurrences</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>atomic_number</t>
+          <t>has_bonds</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>symbol</t>
+          <t>has_submolecules</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>has_atoms</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>is_organic</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>IUPAC_name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>is_radical</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has_chemical_role</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_string</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_chemical_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>has_nuclear_parts</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>IUPAC_name</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>is_radical</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>has_chemical_role</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>type</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>elemental_charge</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"s-block,p-block,d-block,f-block,g-block"</formula1>
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"acid,base"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6264,7 +6335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6275,121 +6346,136 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>elemental_charge</t>
+          <t>in_periodic_table_group</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>in_periodic_table_block</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>atomic_number</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>symbol</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>has_nuclear_parts</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>IUPAC_name</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>is_radical</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>has_chemical_role</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>inchi_string</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>inchi_chemical_sublayer</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"s-block,p-block,d-block,f-block,g-block"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6451,7 +6537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6462,7 +6548,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>energy_level</t>
+          <t>elemental_charge</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -6562,15 +6648,20 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -6582,494 +6673,6 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:W1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>energy_level</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>atomic_number</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>symbol</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>has_nuclear_parts</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>IUPAC_name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>is_radical</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>has_chemical_role</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AE1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_element</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>neutron_number</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>isotope_of</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>half_life</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>decay_product</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>decay_mode</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>decay_energy</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>mode_of_formation</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>energy_level</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>atomic_number</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>symbol</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>has_nuclear_parts</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>IUPAC_name</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>is_radical</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>has_chemical_role</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AE1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_element</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>nucleon_number</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>isobar_of</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>half_life</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>decay_product</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>decay_mode</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>decay_energy</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>mode_of_formation</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>energy_level</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>atomic_number</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>symbol</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>has_nuclear_parts</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>IUPAC_name</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>is_radical</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>has_chemical_role</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7086,107 +6689,107 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>has_element</t>
+          <t>energy_level</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>elemental_charge</t>
+          <t>atomic_number</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>atomic_number</t>
+          <t>symbol</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>symbol</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>has_nuclear_parts</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>has_nuclear_parts</t>
+          <t>IUPAC_name</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>IUPAC_name</t>
+          <t>is_radical</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>is_radical</t>
+          <t>has_chemical_role</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>has_chemical_role</t>
+          <t>inchi_string</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>inchi_string</t>
+          <t>inchi_chemical_sublayer</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>inchi_chemical_sublayer</t>
+          <t>smiles_string</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>smiles_string</t>
+          <t>empirical_formula</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>empirical_formula</t>
+          <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>has_major_microspecies_at_pH7_3</t>
+          <t>molecular_mass</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>molecular_mass</t>
+          <t>water_solubility</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>water_solubility</t>
+          <t>pka_ionization_constant</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>pka_ionization_constant</t>
+          <t>pka_temperature</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>pka_temperature</t>
+          <t>pka_ionic_strength</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>pka_ionic_strength</t>
+          <t>pka_solvent</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>pka_solvent</t>
+          <t>pka_pressure</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>pka_pressure</t>
+          <t>has_ionizable_groups</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
@@ -7210,7 +6813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7227,11 +6830,514 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>energy_level</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>atomic_number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>has_nuclear_parts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>IUPAC_name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>is_radical</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>has_chemical_role</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>inchi_string</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_chemical_sublayer</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>has_element</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>neutron_number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>isotope_of</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>half_life</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>decay_product</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>decay_mode</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>decay_energy</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>mode_of_formation</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>energy_level</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>atomic_number</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has_nuclear_parts</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>IUPAC_name</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>is_radical</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>has_chemical_role</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_string</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_chemical_sublayer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_element</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>nucleon_number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>isobar_of</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>half_life</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>decay_product</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>decay_mode</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>decay_energy</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>mode_of_formation</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>energy_level</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>atomic_number</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has_nuclear_parts</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>IUPAC_name</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>is_radical</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>has_chemical_role</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_string</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_chemical_sublayer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_element</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>elemental_charge</t>
         </is>
       </c>
@@ -7332,15 +7438,20 @@
       </c>
       <c r="V1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -7357,7 +7468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7473,15 +7584,20 @@
       </c>
       <c r="V1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -7498,7 +7614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7509,14 +7625,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>has_element</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>elemental_charge</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>neutron_number</t>
-        </is>
-      </c>
       <c r="C1" t="inlineStr">
         <is>
           <t>atomic_number</t>
@@ -7614,15 +7730,20 @@
       </c>
       <c r="V1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -7634,6 +7755,152 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>elemental_charge</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>neutron_number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>atomic_number</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>has_nuclear_parts</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>IUPAC_name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>is_radical</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_chemical_role</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_string</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_chemical_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7696,32 +7963,6 @@
       <c r="J1" t="inlineStr">
         <is>
           <t>inchi_isotopic_layer</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
         </is>
       </c>
     </row>
@@ -7794,7 +8035,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -7823,6 +8072,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7893,7 +8160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7929,7 +8196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7985,13 +8252,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8082,166 +8349,25 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_atom_occurrences</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has_bonds</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>has_submolecules</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>has_atoms</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>is_organic</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>inchi_atom_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>IUPAC_name</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>is_radical</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>has_chemical_role</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
       <c r="U1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -8258,7 +8384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8374,20 +8500,25 @@
       </c>
       <c r="V1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -8404,7 +8535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8520,20 +8651,25 @@
       </c>
       <c r="V1" t="inlineStr">
         <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -8550,7 +8686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8561,100 +8697,130 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>has_atom_occurrences</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_bonds</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_submolecules</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has_atoms</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>is_organic</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>inchi_atom_connections_sublayer</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>IUPAC_name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>is_radical</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>has_chemical_role</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>inchi_string</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>inchi_chemical_sublayer</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -8727,7 +8893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8738,125 +8904,105 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>has_atom_occurrences</t>
+          <t>inchi_atom_connections_sublayer</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>has_bonds</t>
+          <t>IUPAC_name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>has_submolecules</t>
+          <t>is_radical</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>has_atoms</t>
+          <t>has_chemical_role</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>is_organic</t>
+          <t>inchi_string</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>inchi_atom_connections_sublayer</t>
+          <t>inchi_chemical_sublayer</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>IUPAC_name</t>
+          <t>smiles_string</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>is_radical</t>
+          <t>empirical_formula</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>has_chemical_role</t>
+          <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>inchi_string</t>
+          <t>molecular_mass</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>inchi_chemical_sublayer</t>
+          <t>water_solubility</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>smiles_string</t>
+          <t>pka_ionization_constant</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>empirical_formula</t>
+          <t>pka_temperature</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>has_major_microspecies_at_pH7_3</t>
+          <t>pka_ionic_strength</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>molecular_mass</t>
+          <t>pka_solvent</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>water_solubility</t>
+          <t>pka_pressure</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>pka_ionization_constant</t>
+          <t>has_ionizable_groups</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>pka_temperature</t>
+          <t>owl_subclass_of</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>pka_ionic_strength</t>
+          <t>id</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>pka_solvent</t>
+          <t>name</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -8868,6 +9014,157 @@
 </file>
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_atom_occurrences</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_bonds</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_submolecules</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has_atoms</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>is_organic</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>IUPAC_name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>is_radical</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_chemical_role</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_string</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_chemical_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>has_ionizable_groups</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8893,13 +9190,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8930,71 +9227,20 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>reaction_type</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_rinchi_representation</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has_reaction_smiles_representation</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>reaction_rate_coefficient</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>reaction_rate</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -9011,7 +9257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9022,7 +9268,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>owl_subclass_of</t>
+          <t>has_rinchi_representation</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_reaction_smiles_representation</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>reaction_rate_coefficient</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>reaction_rate</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>reaction_type</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>type</t>
         </is>
       </c>
     </row>
@@ -9135,6 +9416,32 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/schema/excel/chemrof.xlsx
+++ b/schema/excel/chemrof.xlsx
@@ -1433,7 +1433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1499,70 +1499,105 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -1579,7 +1614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1645,70 +1680,105 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -1725,7 +1795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1766,70 +1836,105 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -1846,7 +1951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1912,70 +2017,105 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -2033,7 +2173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2099,70 +2239,105 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -2179,7 +2354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2245,70 +2420,105 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -2320,6 +2530,207 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AJ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>polymer_of</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_repeat_unit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>is_branched</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>polymer_architecture_type</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>has_atom_occurrences</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>has_bonds</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_submolecules</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>has_atoms</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>is_organic</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>IUPAC_name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>is_radical</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has_chemical_role</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_string</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_chemical_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2346,67 +2757,67 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>is_branched</t>
+          <t>inchi_atom_connections_sublayer</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>polymer_architecture_type</t>
+          <t>IUPAC_name</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>has_atom_occurrences</t>
+          <t>is_radical</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>has_bonds</t>
+          <t>has_chemical_role</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>has_submolecules</t>
+          <t>inchi_string</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>has_atoms</t>
+          <t>inchi_chemical_sublayer</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>is_organic</t>
+          <t>inchi_hydrogen_connections_sublayer</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>inchi_atom_connections_sublayer</t>
+          <t>inchi_charge_sublayer</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>IUPAC_name</t>
+          <t>inchi_proton_sublayer</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>is_radical</t>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>has_chemical_role</t>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>inchi_string</t>
+          <t>inchi_stereochemical_type_sublayer</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>inchi_chemical_sublayer</t>
+          <t>inchi_isotopic_layer</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
@@ -2475,137 +2886,6 @@
         </is>
       </c>
       <c r="AC1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:V1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>polymer_of</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has_repeat_unit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>inchi_atom_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>IUPAC_name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>is_radical</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>has_chemical_role</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -2622,7 +2902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2708,70 +2988,105 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -2788,7 +3103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2874,70 +3189,105 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -2954,7 +3304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2995,70 +3345,105 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -3075,7 +3460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3116,70 +3501,105 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -3196,7 +3616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3237,70 +3657,105 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -3317,7 +3772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3358,70 +3813,105 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -3479,7 +3969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3520,70 +4010,105 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -3600,7 +4125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3656,70 +4181,105 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -3736,7 +4296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3802,70 +4362,105 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -3882,7 +4477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AG1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3953,70 +4548,105 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -4033,7 +4663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4074,70 +4704,105 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -4154,7 +4819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4200,70 +4865,105 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -4280,7 +4980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4326,70 +5026,105 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -4406,7 +5141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4452,70 +5187,105 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -4532,7 +5302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4578,70 +5348,105 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -4658,7 +5463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4699,70 +5504,105 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -4830,7 +5670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4896,70 +5736,105 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -4976,7 +5851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5042,70 +5917,105 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -5122,7 +6032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5203,75 +6113,110 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>elemental_charge</t>
         </is>
@@ -5293,7 +6238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5374,75 +6319,110 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>elemental_charge</t>
         </is>
@@ -5464,7 +6444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5545,75 +6525,110 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>elemental_charge</t>
         </is>
@@ -5635,7 +6650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5706,75 +6721,110 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>elemental_charge</t>
         </is>
@@ -5796,7 +6846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5867,75 +6917,110 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>elemental_charge</t>
         </is>
@@ -5957,7 +7042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6028,75 +7113,110 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>elemental_charge</t>
         </is>
@@ -6118,7 +7238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6184,65 +7304,105 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -6264,7 +7424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6325,65 +7485,105 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -6451,7 +7651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6512,65 +7712,105 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -6582,142 +7822,6 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:W1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>energy_level</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>atomic_number</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>symbol</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>has_nuclear_parts</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>IUPAC_name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>is_radical</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>has_chemical_role</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6734,6 +7838,182 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>energy_level</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>atomic_number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>has_nuclear_parts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>IUPAC_name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>is_radical</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>has_chemical_role</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>inchi_string</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_chemical_sublayer</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AM1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>has_element</t>
         </is>
       </c>
@@ -6824,65 +8104,105 @@
       </c>
       <c r="S1" t="inlineStr">
         <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -6899,7 +8219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE1"/>
+  <dimension ref="A1:AM1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7000,65 +8320,105 @@
       </c>
       <c r="S1" t="inlineStr">
         <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -7075,7 +8435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7141,65 +8501,105 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -7216,7 +8616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7282,65 +8682,105 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -7357,7 +8797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7423,65 +8863,105 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -7498,7 +8978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7564,65 +9044,105 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -7991,7 +9511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8032,70 +9552,105 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -8112,7 +9667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8178,70 +9733,105 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -8258,7 +9848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8324,70 +9914,105 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -8404,7 +10029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8470,70 +10095,105 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -8550,7 +10210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8561,100 +10221,150 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>has_left_enantiomer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_right_enantiomer</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>chirality_agnostic_form</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>inchi_atom_connections_sublayer</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>IUPAC_name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>is_radical</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>has_chemical_role</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>inchi_string</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>inchi_chemical_sublayer</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
         <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -8727,7 +10437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8793,70 +10503,105 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -8899,7 +10644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8910,35 +10655,85 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>left_participants</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>right_participants</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>is_diastereoselective</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>is_stereo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>is_balanced</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>is_transport</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>is_fully_characterized</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>reaction_center</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>has_rinchi_representation</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>has_reaction_smiles_representation</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>reaction_rate_coefficient</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>reaction_rate</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>reaction_type</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -8955,7 +10750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8966,35 +10761,85 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>left_participants</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>right_participants</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>is_diastereoselective</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>is_stereo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>is_balanced</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>is_transport</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>is_fully_characterized</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>reaction_center</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>has_rinchi_representation</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>has_reaction_smiles_representation</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>reaction_rate_coefficient</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>reaction_rate</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>reaction_type</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>type</t>
         </is>

--- a/schema/excel/chemrof.xlsx
+++ b/schema/excel/chemrof.xlsx
@@ -75,26 +75,34 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomCation" sheetId="66" state="visible" r:id="rId66"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FullySpecifiedAtom" sheetId="67" state="visible" r:id="rId67"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardInchiObject" sheetId="68" state="visible" r:id="rId68"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChemicalRole" sheetId="69" state="visible" r:id="rId69"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stereocenter" sheetId="70" state="visible" r:id="rId70"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChiralityCenter" sheetId="71" state="visible" r:id="rId71"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomicBond" sheetId="72" state="visible" r:id="rId72"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SubatomicParticleOccurrence" sheetId="73" state="visible" r:id="rId73"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomOccurrence" sheetId="74" state="visible" r:id="rId74"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChemicalSalt" sheetId="75" state="visible" r:id="rId75"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ester" sheetId="76" state="visible" r:id="rId76"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stereoisomer" sheetId="77" state="visible" r:id="rId77"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enantiomer" sheetId="78" state="visible" r:id="rId78"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RacemicMixture" sheetId="79" state="visible" r:id="rId79"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Allotrope" sheetId="80" state="visible" r:id="rId80"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PolymerRepeatUnit" sheetId="81" state="visible" r:id="rId81"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reaction" sheetId="82" state="visible" r:id="rId82"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IsomeraseReaction" sheetId="83" state="visible" r:id="rId83"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReactionParticipant" sheetId="84" state="visible" r:id="rId84"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProportionalPart" sheetId="85" state="visible" r:id="rId85"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChemicalSimilarity" sheetId="86" state="visible" r:id="rId86"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MoleculePairwiseSimilarity" sheetId="87" state="visible" r:id="rId87"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TanimotoSimilarity" sheetId="88" state="visible" r:id="rId88"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concentration" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChemicalRole" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IngredientRole" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ElementSourceRole" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BufferRole" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SolventRole" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NutrientRole" sheetId="75" state="visible" r:id="rId75"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VitaminRole" sheetId="76" state="visible" r:id="rId76"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MineralNutrientRole" sheetId="77" state="visible" r:id="rId77"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stereocenter" sheetId="78" state="visible" r:id="rId78"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChiralityCenter" sheetId="79" state="visible" r:id="rId79"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomicBond" sheetId="80" state="visible" r:id="rId80"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SubatomicParticleOccurrence" sheetId="81" state="visible" r:id="rId81"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomOccurrence" sheetId="82" state="visible" r:id="rId82"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChemicalSalt" sheetId="83" state="visible" r:id="rId83"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ester" sheetId="84" state="visible" r:id="rId84"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stereoisomer" sheetId="85" state="visible" r:id="rId85"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enantiomer" sheetId="86" state="visible" r:id="rId86"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RacemicMixture" sheetId="87" state="visible" r:id="rId87"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Allotrope" sheetId="88" state="visible" r:id="rId88"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PolymerRepeatUnit" sheetId="89" state="visible" r:id="rId89"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reaction" sheetId="90" state="visible" r:id="rId90"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IsomeraseReaction" sheetId="91" state="visible" r:id="rId91"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReactionParticipant" sheetId="92" state="visible" r:id="rId92"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProportionalPart" sheetId="93" state="visible" r:id="rId93"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChemicalSimilarity" sheetId="94" state="visible" r:id="rId94"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MoleculePairwiseSimilarity" sheetId="95" state="visible" r:id="rId95"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TanimotoSimilarity" sheetId="96" state="visible" r:id="rId96"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1795,7 +1803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1806,135 +1814,140 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ph</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>inchi_atom_connections_sublayer</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>IUPAC_name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>is_radical</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>has_chemical_role</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>inchi_string</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>inchi_chemical_sublayer</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>inchi_hydrogen_connections_sublayer</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>inchi_charge_sublayer</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>inchi_proton_sublayer</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>inchi_stereochemical_double_bond_sublayer</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>inchi_tetrahedral_stereochemical_sublayer</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>inchi_stereochemical_type_sublayer</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>inchi_isotopic_layer</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -2736,7 +2749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2757,135 +2770,140 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>ph</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>inchi_atom_connections_sublayer</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>IUPAC_name</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>is_radical</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>has_chemical_role</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>inchi_string</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>inchi_chemical_sublayer</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>inchi_hydrogen_connections_sublayer</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>inchi_charge_sublayer</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>inchi_proton_sublayer</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>inchi_stereochemical_double_bond_sublayer</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>inchi_tetrahedral_stereochemical_sublayer</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>inchi_stereochemical_type_sublayer</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>inchi_isotopic_layer</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -4125,7 +4143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4151,135 +4169,140 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>ph</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>inchi_atom_connections_sublayer</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>IUPAC_name</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>is_radical</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>has_chemical_role</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>inchi_string</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>inchi_chemical_sublayer</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>inchi_hydrogen_connections_sublayer</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>inchi_charge_sublayer</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>inchi_proton_sublayer</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>inchi_stereochemical_double_bond_sublayer</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>inchi_tetrahedral_stereochemical_sublayer</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>inchi_stereochemical_type_sublayer</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>inchi_isotopic_layer</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -9230,7 +9253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9241,11 +9264,21 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>owl_subclass_of</t>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unit</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"M,mM,uM,nM,g/L,mg/L,ug/L,ng/L,percent_w/v,percent_v/v,percent_w/w,ppm,ppb"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -9314,7 +9347,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -9332,7 +9373,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -9343,7 +9392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9354,61 +9403,16 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>subject</t>
+          <t>source_element</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>bond_type</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>bond_order</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>bond_length</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>bond_energy</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>bond_length_in_angstroms</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>bond_angle</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>torsional_angle</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"covalent,aromatic,single,double,triple,quadruple,hydrogen,ionic,polycentric,metal-metal,salt bridge,polar covalent,sigma"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -9419,7 +9423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9429,16 +9433,6 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
-        <is>
-          <t>occurrence_of</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
@@ -9455,7 +9449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9465,36 +9459,6 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>occurrence_of</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>valence</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>oxidation_number</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>formal_charge</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>coordination_number</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
@@ -9511,7 +9475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9522,137 +9486,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>inchi_atom_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>IUPAC_name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>is_radical</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>has_chemical_role</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>inchi_hydrogen_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>inchi_charge_sublayer</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>inchi_proton_sublayer</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>inchi_stereochemical_double_bond_sublayer</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>inchi_tetrahedral_stereochemical_sublayer</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>inchi_stereochemical_type_sublayer</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>inchi_isotopic_layer</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
           <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>type</t>
         </is>
       </c>
     </row>
@@ -9667,7 +9501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9678,162 +9512,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>has_atom_occurrences</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has_bonds</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>has_submolecules</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>has_atoms</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>is_organic</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>inchi_atom_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>IUPAC_name</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>is_radical</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>has_chemical_role</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>inchi_hydrogen_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>inchi_charge_sublayer</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>inchi_proton_sublayer</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>inchi_stereochemical_double_bond_sublayer</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>inchi_tetrahedral_stereochemical_sublayer</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>inchi_stereochemical_type_sublayer</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>inchi_isotopic_layer</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
           <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>type</t>
         </is>
       </c>
     </row>
@@ -9848,7 +9527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9859,162 +9538,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>has_atom_occurrences</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has_bonds</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>has_submolecules</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>has_atoms</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>is_organic</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>inchi_atom_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>IUPAC_name</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>is_radical</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>has_chemical_role</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>inchi_hydrogen_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>inchi_charge_sublayer</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>inchi_proton_sublayer</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>inchi_stereochemical_double_bond_sublayer</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>inchi_tetrahedral_stereochemical_sublayer</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>inchi_stereochemical_type_sublayer</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>inchi_isotopic_layer</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
           <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>type</t>
         </is>
       </c>
     </row>
@@ -10029,177 +9553,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_atom_occurrences</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has_bonds</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>has_submolecules</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>has_atoms</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>is_organic</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>inchi_atom_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>IUPAC_name</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>is_radical</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>has_chemical_role</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>inchi_hydrogen_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>inchi_charge_sublayer</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>inchi_proton_sublayer</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>inchi_stereochemical_double_bond_sublayer</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>inchi_tetrahedral_stereochemical_sublayer</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>inchi_stereochemical_type_sublayer</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>inchi_isotopic_layer</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -10210,167 +9571,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_left_enantiomer</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has_right_enantiomer</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>chirality_agnostic_form</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>inchi_atom_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>IUPAC_name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>is_radical</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>has_chemical_role</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>inchi_hydrogen_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>inchi_charge_sublayer</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>inchi_proton_sublayer</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>inchi_stereochemical_double_bond_sublayer</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>inchi_tetrahedral_stereochemical_sublayer</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>inchi_stereochemical_type_sublayer</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>inchi_isotopic_layer</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -10437,7 +9645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10448,166 +9656,61 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>has_atom_occurrences</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>has_bonds</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>has_submolecules</t>
+          <t>bond_type</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>has_atoms</t>
+          <t>bond_order</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>is_organic</t>
+          <t>bond_length</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>inchi_atom_connections_sublayer</t>
+          <t>bond_energy</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>IUPAC_name</t>
+          <t>bond_length_in_angstroms</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>is_radical</t>
+          <t>bond_angle</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>has_chemical_role</t>
+          <t>torsional_angle</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>inchi_hydrogen_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>inchi_charge_sublayer</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>inchi_proton_sublayer</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>inchi_stereochemical_double_bond_sublayer</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>inchi_tetrahedral_stereochemical_sublayer</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>inchi_stereochemical_type_sublayer</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>inchi_isotopic_layer</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
           <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>type</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"covalent,aromatic,single,double,triple,quadruple,hydrogen,ionic,polycentric,metal-metal,salt bridge,polar covalent,sigma"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -10618,7 +9721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10628,6 +9731,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
+        <is>
+          <t>occurrence_of</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
@@ -10644,7 +9757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10655,87 +9768,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>left_participants</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>right_participants</t>
+          <t>occurrence_of</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>direction</t>
+          <t>valence</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>is_diastereoselective</t>
+          <t>oxidation_number</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>is_stereo</t>
+          <t>formal_charge</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>is_balanced</t>
+          <t>coordination_number</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>is_transport</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>is_fully_characterized</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>reaction_center</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>has_rinchi_representation</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>has_reaction_smiles_representation</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>reaction_rate_coefficient</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>reaction_rate</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>reaction_type</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>type</t>
+          <t>owl_subclass_of</t>
         </is>
       </c>
     </row>
@@ -10750,7 +9813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10761,85 +9824,140 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>left_participants</t>
+          <t>ph</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>right_participants</t>
+          <t>inchi_atom_connections_sublayer</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>direction</t>
+          <t>IUPAC_name</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>is_diastereoselective</t>
+          <t>is_radical</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>is_stereo</t>
+          <t>has_chemical_role</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>is_balanced</t>
+          <t>inchi_string</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>is_transport</t>
+          <t>inchi_chemical_sublayer</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>is_fully_characterized</t>
+          <t>inchi_hydrogen_connections_sublayer</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>reaction_center</t>
+          <t>inchi_charge_sublayer</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>has_rinchi_representation</t>
+          <t>inchi_proton_sublayer</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>has_reaction_smiles_representation</t>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>reaction_rate_coefficient</t>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>reaction_rate</t>
+          <t>inchi_stereochemical_type_sublayer</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>reaction_type</t>
+          <t>inchi_isotopic_layer</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -10856,7 +9974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10867,7 +9985,162 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>has_atom_occurrences</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_bonds</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_submolecules</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has_atoms</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>is_organic</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>IUPAC_name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>is_radical</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_chemical_role</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_string</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_chemical_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>type</t>
         </is>
       </c>
     </row>
@@ -10882,7 +10155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10893,7 +10166,162 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>has_atom_occurrences</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_bonds</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_submolecules</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has_atoms</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>is_organic</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>IUPAC_name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>is_radical</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_chemical_role</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_string</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_chemical_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>type</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10919,7 +10347,162 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>has_atom_occurrences</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_bonds</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_submolecules</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has_atoms</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>is_organic</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>IUPAC_name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>is_radical</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_chemical_role</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_string</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_chemical_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>type</t>
         </is>
       </c>
     </row>
@@ -10934,7 +10517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10945,7 +10528,157 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>has_left_enantiomer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_right_enantiomer</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>chirality_agnostic_form</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ph</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>IUPAC_name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>is_radical</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>has_chemical_role</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>inchi_string</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_chemical_sublayer</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>type</t>
         </is>
       </c>
     </row>
@@ -10955,6 +10688,187 @@
 </file>
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_atom_occurrences</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_bonds</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_submolecules</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has_atoms</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>is_organic</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>IUPAC_name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>is_radical</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_chemical_role</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_string</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_chemical_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11034,4 +10948,356 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>left_participants</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>right_participants</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>is_diastereoselective</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>is_stereo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>is_balanced</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>is_transport</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>is_fully_characterized</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>reaction_center</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has_rinchi_representation</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>has_reaction_smiles_representation</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>reaction_rate_coefficient</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>reaction_rate</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>reaction_type</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>left_participants</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>right_participants</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>is_diastereoselective</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>is_stereo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>is_balanced</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>is_transport</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>is_fully_characterized</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>reaction_center</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has_rinchi_representation</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>has_reaction_smiles_representation</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>reaction_rate_coefficient</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>reaction_rate</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>reaction_type</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_ingredient_role</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>concentration</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/schema/excel/chemrof.xlsx
+++ b/schema/excel/chemrof.xlsx
@@ -68,33 +68,34 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UnchargedAtom" sheetId="59" state="visible" r:id="rId59"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuclide" sheetId="60" state="visible" r:id="rId60"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Radionuclide" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Isotope" sheetId="62" state="visible" r:id="rId62"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Isobar" sheetId="63" state="visible" r:id="rId63"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MonoatomicIon" sheetId="64" state="visible" r:id="rId64"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomAnion" sheetId="65" state="visible" r:id="rId65"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomCation" sheetId="66" state="visible" r:id="rId66"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FullySpecifiedAtom" sheetId="67" state="visible" r:id="rId67"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardInchiObject" sheetId="68" state="visible" r:id="rId68"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChemicalRole" sheetId="69" state="visible" r:id="rId69"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stereocenter" sheetId="70" state="visible" r:id="rId70"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChiralityCenter" sheetId="71" state="visible" r:id="rId71"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomicBond" sheetId="72" state="visible" r:id="rId72"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SubatomicParticleOccurrence" sheetId="73" state="visible" r:id="rId73"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomOccurrence" sheetId="74" state="visible" r:id="rId74"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChemicalSalt" sheetId="75" state="visible" r:id="rId75"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ester" sheetId="76" state="visible" r:id="rId76"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stereoisomer" sheetId="77" state="visible" r:id="rId77"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enantiomer" sheetId="78" state="visible" r:id="rId78"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RacemicMixture" sheetId="79" state="visible" r:id="rId79"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Allotrope" sheetId="80" state="visible" r:id="rId80"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PolymerRepeatUnit" sheetId="81" state="visible" r:id="rId81"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reaction" sheetId="82" state="visible" r:id="rId82"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IsomeraseReaction" sheetId="83" state="visible" r:id="rId83"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReactionParticipant" sheetId="84" state="visible" r:id="rId84"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProportionalPart" sheetId="85" state="visible" r:id="rId85"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChemicalSimilarity" sheetId="86" state="visible" r:id="rId86"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MoleculePairwiseSimilarity" sheetId="87" state="visible" r:id="rId87"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TanimotoSimilarity" sheetId="88" state="visible" r:id="rId88"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DecaySeries" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Isotope" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Isobar" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MonoatomicIon" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomAnion" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomCation" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FullySpecifiedAtom" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardInchiObject" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChemicalRole" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stereocenter" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChiralityCenter" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomicBond" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SubatomicParticleOccurrence" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AtomOccurrence" sheetId="75" state="visible" r:id="rId75"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChemicalSalt" sheetId="76" state="visible" r:id="rId76"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ester" sheetId="77" state="visible" r:id="rId77"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stereoisomer" sheetId="78" state="visible" r:id="rId78"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enantiomer" sheetId="79" state="visible" r:id="rId79"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RacemicMixture" sheetId="80" state="visible" r:id="rId80"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Allotrope" sheetId="81" state="visible" r:id="rId81"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PolymerRepeatUnit" sheetId="82" state="visible" r:id="rId82"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reaction" sheetId="83" state="visible" r:id="rId83"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IsomeraseReaction" sheetId="84" state="visible" r:id="rId84"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReactionParticipant" sheetId="85" state="visible" r:id="rId85"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProportionalPart" sheetId="86" state="visible" r:id="rId86"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChemicalSimilarity" sheetId="87" state="visible" r:id="rId87"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MoleculePairwiseSimilarity" sheetId="88" state="visible" r:id="rId88"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TanimotoSimilarity" sheetId="89" state="visible" r:id="rId89"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8003,7 +8004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8014,195 +8015,35 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>has_element</t>
+          <t>parent_nuclide</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>neutron_number</t>
+          <t>stable_end_product</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>isotope_of</t>
+          <t>series_members</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>half_life</t>
+          <t>series_name</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>decay_product</t>
+          <t>id</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>decay_mode</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
-        <is>
-          <t>decay_energy</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>mode_of_formation</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>energy_level</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>atomic_number</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>symbol</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>has_nuclear_parts</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>IUPAC_name</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>is_radical</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>has_chemical_role</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>inchi_atom_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>inchi_hydrogen_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>inchi_charge_sublayer</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>inchi_proton_sublayer</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>inchi_stereochemical_double_bond_sublayer</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>inchi_tetrahedral_stereochemical_sublayer</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>inchi_stereochemical_type_sublayer</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>inchi_isotopic_layer</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -8214,6 +8055,237 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AP1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_element</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>neutron_number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>isotope_of</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>half_life</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>decay_product</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>decay_mode</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>decay_energy</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>mode_of_formation</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>decay_series</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>position_in_series</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>branching_ratio</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>energy_level</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>atomic_number</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>has_nuclear_parts</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>IUPAC_name</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_radical</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>has_chemical_role</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>inchi_string</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>inchi_chemical_sublayer</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8419,187 +8491,6 @@
         </is>
       </c>
       <c r="AM1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AF1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_element</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>elemental_charge</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>atomic_number</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>symbol</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>has_nuclear_parts</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>IUPAC_name</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>is_radical</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>has_chemical_role</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>inchi_atom_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>inchi_hydrogen_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>inchi_charge_sublayer</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>inchi_proton_sublayer</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>inchi_stereochemical_double_bond_sublayer</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>inchi_tetrahedral_stereochemical_sublayer</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>inchi_stereochemical_type_sublayer</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>inchi_isotopic_layer</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -8989,12 +8880,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>has_element</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>elemental_charge</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>neutron_number</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -9154,6 +9045,187 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>elemental_charge</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>neutron_number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>atomic_number</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>has_nuclear_parts</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>IUPAC_name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>is_radical</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_chemical_role</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_string</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_chemical_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9216,32 +9288,6 @@
       <c r="J1" t="inlineStr">
         <is>
           <t>inchi_isotopic_layer</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
         </is>
       </c>
     </row>
@@ -9314,7 +9360,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -9343,6 +9397,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9413,7 +9485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9449,7 +9521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9505,7 +9577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9651,187 +9723,6 @@
         </is>
       </c>
       <c r="AA1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AF1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_atom_occurrences</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has_bonds</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>has_submolecules</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>has_atoms</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>is_organic</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>inchi_atom_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>IUPAC_name</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>is_radical</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>has_chemical_role</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>inchi_string</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>inchi_chemical_sublayer</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>inchi_hydrogen_connections_sublayer</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>inchi_charge_sublayer</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>inchi_proton_sublayer</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>inchi_stereochemical_double_bond_sublayer</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>inchi_tetrahedral_stereochemical_sublayer</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>inchi_stereochemical_type_sublayer</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>inchi_isotopic_layer</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>smiles_string</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>empirical_formula</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>has_major_microspecies_at_pH7_3</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>molecular_mass</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>water_solubility</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>pka_ionization_constant</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>pka_temperature</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>pka_ionic_strength</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>pka_solvent</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>pka_pressure</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>owl_subclass_of</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -10210,7 +10101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10221,150 +10112,160 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>has_left_enantiomer</t>
+          <t>has_atom_occurrences</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>has_right_enantiomer</t>
+          <t>has_bonds</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>chirality_agnostic_form</t>
+          <t>has_submolecules</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>has_atoms</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>is_organic</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>inchi_atom_connections_sublayer</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>IUPAC_name</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>is_radical</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>has_chemical_role</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>inchi_string</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>inchi_chemical_sublayer</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>inchi_hydrogen_connections_sublayer</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>inchi_charge_sublayer</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>inchi_proton_sublayer</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>inchi_stereochemical_double_bond_sublayer</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>inchi_tetrahedral_stereochemical_sublayer</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>inchi_stereochemical_type_sublayer</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>inchi_isotopic_layer</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>smiles_string</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>empirical_formula</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>has_major_microspecies_at_pH7_3</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>molecular_mass</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>water_solubility</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pka_ionization_constant</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pka_temperature</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>pka_ionic_strength</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>pka_solvent</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>pka_pressure</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -10437,6 +10338,177 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AD1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_left_enantiomer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_right_enantiomer</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>chirality_agnostic_form</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>inchi_atom_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>IUPAC_name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>is_radical</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_chemical_role</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>inchi_string</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>inchi_chemical_sublayer</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>inchi_hydrogen_connections_sublayer</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>inchi_charge_sublayer</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>inchi_proton_sublayer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_double_bond_sublayer</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>inchi_tetrahedral_stereochemical_sublayer</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>inchi_stereochemical_type_sublayer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>inchi_isotopic_layer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>smiles_string</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>empirical_formula</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>has_major_microspecies_at_pH7_3</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>molecular_mass</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>water_solubility</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>pka_ionization_constant</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>pka_temperature</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>pka_ionic_strength</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>pka_solvent</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>pka_pressure</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10612,7 +10684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10630,112 +10702,6 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Q1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>left_participants</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>right_participants</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>direction</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>is_diastereoselective</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>is_stereo</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>is_balanced</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>is_transport</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>is_fully_characterized</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>reaction_center</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>has_rinchi_representation</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>has_reaction_smiles_representation</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>reaction_rate_coefficient</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>reaction_rate</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>reaction_type</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>type</t>
         </is>
       </c>
     </row>
@@ -10856,7 +10822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10867,7 +10833,87 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>owl_subclass_of</t>
+          <t>left_participants</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>right_participants</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>is_diastereoselective</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>is_stereo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>is_balanced</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>is_transport</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>is_fully_characterized</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>reaction_center</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has_rinchi_representation</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>has_reaction_smiles_representation</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>reaction_rate_coefficient</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>reaction_rate</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>reaction_type</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>type</t>
         </is>
       </c>
     </row>
@@ -10980,6 +11026,32 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>owl_subclass_of</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/schema/excel/chemrof.xlsx
+++ b/schema/excel/chemrof.xlsx
@@ -9366,7 +9366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9377,11 +9377,26 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>source_element</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>role_type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"carbon_source,nitrogen_source,phosphorus_source,sulfur_source,electron_donor,electron_acceptor,buffer,solvent,vitamin,mineral,trace_element,growth_factor,antibiotic,inducer,substrate"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -9392,7 +9407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9408,11 +9423,21 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>role_type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"carbon_source,nitrogen_source,phosphorus_source,sulfur_source,electron_donor,electron_acceptor,buffer,solvent,vitamin,mineral,trace_element,growth_factor,antibiotic,inducer,substrate"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -9423,7 +9448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9434,11 +9459,26 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>source_element</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>role_type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"carbon_source,nitrogen_source,phosphorus_source,sulfur_source,electron_donor,electron_acceptor,buffer,solvent,vitamin,mineral,trace_element,growth_factor,antibiotic,inducer,substrate"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -9449,7 +9489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9460,11 +9500,26 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>source_element</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>role_type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"carbon_source,nitrogen_source,phosphorus_source,sulfur_source,electron_donor,electron_acceptor,buffer,solvent,vitamin,mineral,trace_element,growth_factor,antibiotic,inducer,substrate"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -9475,7 +9530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9486,11 +9541,26 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>source_element</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>role_type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"carbon_source,nitrogen_source,phosphorus_source,sulfur_source,electron_donor,electron_acceptor,buffer,solvent,vitamin,mineral,trace_element,growth_factor,antibiotic,inducer,substrate"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -9501,7 +9571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9512,11 +9582,26 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>source_element</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>role_type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"carbon_source,nitrogen_source,phosphorus_source,sulfur_source,electron_donor,electron_acceptor,buffer,solvent,vitamin,mineral,trace_element,growth_factor,antibiotic,inducer,substrate"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -9527,7 +9612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9538,11 +9623,26 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>source_element</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>role_type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"carbon_source,nitrogen_source,phosphorus_source,sulfur_source,electron_donor,electron_acceptor,buffer,solvent,vitamin,mineral,trace_element,growth_factor,antibiotic,inducer,substrate"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -11194,7 +11294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11205,21 +11305,46 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>composed_of</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_role</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>has_ingredient_role</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>concentration</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>minimal_percentage</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>maximum_percentage</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>owl_subclass_of</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"active ingredient,inactive ingredient,excipient,solvent"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
